--- a/bill.xlsx
+++ b/bill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6335DE3F-AFD1-41B3-83C3-509663B502FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE0FF9C3-F42B-4711-A56D-79451B197641}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DEFAE1CB-3061-4B70-AB63-4D0F26D06AF2}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="90">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -390,6 +390,38 @@
 另外加上每人10元*69人=690
 外宿生：70教室租金及返还的30内宿电话费=100*2=200
 余101元转入班费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.5.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合唱材料:双面胶*2，大透明胶，纸箱*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.5.26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合唱材料：麦子38*3，手提篮38，优惠2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合唱比赛:粉扑10*2=20，卸妆巾10*2=20，购物袋0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.5.27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合唱比赛：一卷大透明胶（合唱道具粘和用）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合唱比赛：谷芳群帮忙购买化妆品（后续补全）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -497,13 +529,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -821,11 +853,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65D81148-B07E-4FB1-B857-C2D410A0760E}">
-  <dimension ref="A2:F47"/>
+  <dimension ref="A2:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B49" sqref="B49:C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -848,17 +880,17 @@
       </c>
       <c r="D2">
         <f>SUM(D3:D1000)</f>
-        <v>5153.5</v>
+        <v>4798</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="11"/>
+      <c r="C3" s="9"/>
       <c r="D3">
         <v>7000</v>
       </c>
@@ -939,10 +971,10 @@
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="11"/>
+      <c r="C10" s="9"/>
       <c r="D10">
         <v>-19</v>
       </c>
@@ -1023,10 +1055,10 @@
       <c r="A17" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="9"/>
+      <c r="C17" s="10"/>
       <c r="D17" s="4">
         <v>-150</v>
       </c>
@@ -1037,10 +1069,10 @@
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="10"/>
+      <c r="C18" s="11"/>
       <c r="D18" s="3">
         <v>355</v>
       </c>
@@ -1395,37 +1427,73 @@
         <v>101</v>
       </c>
     </row>
+    <row r="48" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C48" s="7"/>
+      <c r="D48">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" s="7"/>
+      <c r="D49">
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" s="7"/>
+      <c r="D50">
+        <v>-40.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C51" s="7"/>
+      <c r="D51">
+        <v>-144</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C52" s="7"/>
+      <c r="D52">
+        <v>-6</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="45">
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
+  <mergeCells count="50">
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
@@ -1442,6 +1510,35 @@
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bill.xlsx
+++ b/bill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE0FF9C3-F42B-4711-A56D-79451B197641}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD4770B-1A29-4AE4-A033-03FBD7E8E93D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DEFAE1CB-3061-4B70-AB63-4D0F26D06AF2}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -422,6 +422,14 @@
   </si>
   <si>
     <t>合唱比赛：谷芳群帮忙购买化妆品（后续补全）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.5.28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团员费剩余</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -529,13 +537,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -853,11 +861,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65D81148-B07E-4FB1-B857-C2D410A0760E}">
-  <dimension ref="A2:F52"/>
+  <dimension ref="A2:F53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B49" sqref="B49:C49"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -880,17 +888,17 @@
       </c>
       <c r="D2">
         <f>SUM(D3:D1000)</f>
-        <v>4798</v>
+        <v>4801.5</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="9"/>
+      <c r="C3" s="11"/>
       <c r="D3">
         <v>7000</v>
       </c>
@@ -971,10 +979,10 @@
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="9"/>
+      <c r="C10" s="11"/>
       <c r="D10">
         <v>-19</v>
       </c>
@@ -1055,10 +1063,10 @@
       <c r="A17" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="10"/>
+      <c r="C17" s="9"/>
       <c r="D17" s="4">
         <v>-150</v>
       </c>
@@ -1069,10 +1077,10 @@
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="11"/>
+      <c r="C18" s="10"/>
       <c r="D18" s="3">
         <v>355</v>
       </c>
@@ -1487,13 +1495,50 @@
         <v>-6</v>
       </c>
     </row>
+    <row r="53" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C53" s="7"/>
+      <c r="D53">
+        <v>3.5</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="50">
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
+  <mergeCells count="51">
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
@@ -1510,35 +1555,11 @@
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bill.xlsx
+++ b/bill.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\adobe\sync\同步\github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD4770B-1A29-4AE4-A033-03FBD7E8E93D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D95BAC-B4DF-46EA-8AD3-AD35ECCE7095}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DEFAE1CB-3061-4B70-AB63-4D0F26D06AF2}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="91">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -357,10 +357,6 @@
 69份刻板 7.5*69=517.5 
 10份小组材料 72*10=720 
 班级用工具和材料 108</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前余额</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -509,7 +505,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -517,15 +513,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -544,6 +531,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -861,706 +860,648 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65D81148-B07E-4FB1-B857-C2D410A0760E}">
-  <dimension ref="A2:F53"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H49" sqref="H49"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="8.25" customWidth="1"/>
+    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C1" s="5" t="str">
+        <f>CONCATENATE("共计",SUM(C2:C998),"元")</f>
+        <v>共计4801.5元</v>
+      </c>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4">
+        <v>7000</v>
+      </c>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4">
+        <v>-2366</v>
+      </c>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="4">
+        <v>148</v>
+      </c>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4">
+        <v>3500</v>
+      </c>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="4">
+        <v>-167</v>
+      </c>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="4">
+        <v>-55</v>
+      </c>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="4">
+        <v>71</v>
+      </c>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="4">
+        <v>-19</v>
+      </c>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="4">
+        <v>-556</v>
+      </c>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="4">
+        <v>-72.5</v>
+      </c>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="4">
+        <v>-180</v>
+      </c>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="4">
+        <v>-100</v>
+      </c>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="4">
+        <v>-30</v>
+      </c>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="4">
+        <v>-13</v>
+      </c>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="11">
+        <v>-150</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="12">
+        <v>355</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="4">
+        <v>-14</v>
+      </c>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="4">
+        <v>-150</v>
+      </c>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="4">
+        <v>-7</v>
+      </c>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="4">
+        <v>-7</v>
+      </c>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="4">
+        <v>7</v>
+      </c>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="4">
+        <v>330</v>
+      </c>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="4">
+        <v>-65</v>
+      </c>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="4">
+        <v>124</v>
+      </c>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="4">
+        <v>-40</v>
+      </c>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="4">
+        <v>-12</v>
+      </c>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="4">
+        <v>9</v>
+      </c>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="4">
+        <v>46</v>
+      </c>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="4">
+        <v>28</v>
+      </c>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="4">
+        <v>-1</v>
+      </c>
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="4">
+        <v>-6</v>
+      </c>
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="4">
+        <v>-14</v>
+      </c>
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="4">
+        <v>-48</v>
+      </c>
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="4">
+        <v>-50</v>
+      </c>
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="4">
+        <v>-22</v>
+      </c>
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" s="4">
+        <v>-56</v>
+      </c>
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="4">
+        <v>-25</v>
+      </c>
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" s="4">
+        <v>231</v>
+      </c>
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40" spans="1:4" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="4">
+        <v>-414</v>
+      </c>
+      <c r="D40" s="4"/>
+    </row>
+    <row r="41" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" s="4">
+        <v>-531</v>
+      </c>
+      <c r="D41" s="4"/>
+    </row>
+    <row r="42" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" s="4">
+        <v>-10</v>
+      </c>
+      <c r="D42" s="4"/>
+    </row>
+    <row r="43" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43" s="4">
+        <v>-50</v>
+      </c>
+      <c r="D43" s="4"/>
+    </row>
+    <row r="44" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C44" s="4">
+        <v>-220</v>
+      </c>
+      <c r="D44" s="4"/>
+    </row>
+    <row r="45" spans="1:4" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" s="4">
+        <v>-1346</v>
+      </c>
+      <c r="D45" s="4"/>
+    </row>
+    <row r="46" spans="1:4" ht="314.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D2">
-        <f>SUM(D3:D1000)</f>
-        <v>4801.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4">
-        <v>-2366</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7">
-        <v>-167</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8">
-        <v>-55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="D10">
-        <v>-19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11">
-        <v>-556</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12">
-        <v>-72.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13">
-        <v>-180</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15">
-        <v>-30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16">
-        <v>-13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="4">
+      <c r="B46" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C46" s="4">
+        <v>101</v>
+      </c>
+      <c r="D46" s="4"/>
+    </row>
+    <row r="47" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47" s="4">
+        <v>-15</v>
+      </c>
+      <c r="D47" s="4"/>
+    </row>
+    <row r="48" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C48" s="4">
         <v>-150</v>
       </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="3">
-        <v>355</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19">
-        <v>-14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20">
-        <v>-150</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21">
-        <v>-7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="7"/>
-      <c r="D22">
-        <v>-7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="D24">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="7"/>
-      <c r="D25">
-        <v>-65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="7"/>
-      <c r="D26">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="7"/>
-      <c r="D27">
-        <v>-40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="7"/>
-      <c r="D28">
-        <v>-12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" s="7"/>
-      <c r="D29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="7"/>
-      <c r="D30">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" s="7"/>
-      <c r="D31">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C32" s="7"/>
-      <c r="D32">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33" s="7"/>
-      <c r="D33">
+      <c r="D48" s="4"/>
+    </row>
+    <row r="49" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" s="4">
+        <v>-40.5</v>
+      </c>
+      <c r="D49" s="4"/>
+    </row>
+    <row r="50" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C50" s="4">
+        <v>-144</v>
+      </c>
+      <c r="D50" s="4"/>
+    </row>
+    <row r="51" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C51" s="4">
         <v>-6</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C34" s="7"/>
-      <c r="D34">
-        <v>-14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C35" s="7"/>
-      <c r="D35">
-        <v>-48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C36" s="7"/>
-      <c r="D36">
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C37" s="7"/>
-      <c r="D37">
-        <v>-22</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C38" s="7"/>
-      <c r="D38">
-        <v>-56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C39" s="7"/>
-      <c r="D39">
-        <v>-25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C40" s="7"/>
-      <c r="D40">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C41" s="8"/>
-      <c r="D41">
-        <v>-414</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C42" s="8"/>
-      <c r="D42">
-        <v>-531</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C43" s="7"/>
-      <c r="D43">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C44" s="7"/>
-      <c r="D44">
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C45" s="7"/>
-      <c r="D45">
-        <v>-220</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C46" s="8"/>
-      <c r="D46">
-        <v>-1346</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="314.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C47" s="8"/>
-      <c r="D47">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C48" s="7"/>
-      <c r="D48">
-        <v>-15</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C49" s="7"/>
-      <c r="D49">
-        <v>-150</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C50" s="7"/>
-      <c r="D50">
-        <v>-40.5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B51" s="7" t="s">
+      <c r="D51" s="4"/>
+    </row>
+    <row r="52" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C51" s="7"/>
-      <c r="D51">
-        <v>-144</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C52" s="7"/>
-      <c r="D52">
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
+      <c r="B52" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B53" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C53" s="7"/>
-      <c r="D53">
+      <c r="C52" s="4">
         <v>3.5</v>
       </c>
+      <c r="D52" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="51">
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
